--- a/Giang - log.xlsx
+++ b/Giang - log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Stt</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Chuyển tiền cho Hiệp</t>
+  </si>
+  <si>
+    <t>Nhận 4 con iphone 6</t>
   </si>
 </sst>
 </file>
@@ -382,7 +385,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,6 +468,15 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43020</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>-100000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/Giang - log.xlsx
+++ b/Giang - log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Stt</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Nhận 4 con iphone 6</t>
+  </si>
+  <si>
+    <t>Bán 1 con iphone 6s</t>
+  </si>
+  <si>
+    <t>Bán 1 con iphone 6</t>
   </si>
 </sst>
 </file>
@@ -385,7 +391,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,10 +489,28 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" s="1">
+        <v>43021</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>6000000</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43021</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>5090000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">

--- a/Giang - log.xlsx
+++ b/Giang - log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Stt</t>
   </si>
@@ -33,22 +33,31 @@
     <t>Chuyển tiền vốn cho Hiệp</t>
   </si>
   <si>
-    <t>Nhận 3 con iphone 6s</t>
-  </si>
-  <si>
-    <t>Bán 2 con iphone 6s</t>
-  </si>
-  <si>
     <t>Chuyển tiền cho Hiệp</t>
   </si>
   <si>
-    <t>Nhận 4 con iphone 6</t>
-  </si>
-  <si>
-    <t>Bán 1 con iphone 6s</t>
-  </si>
-  <si>
-    <t>Bán 1 con iphone 6</t>
+    <t>Bán 1 con iphone 7plus 32gb</t>
+  </si>
+  <si>
+    <t>Bán 1 con iphone 6 16gb</t>
+  </si>
+  <si>
+    <t>Bán 1 con iphone 6s 16gb</t>
+  </si>
+  <si>
+    <t>Nhận 4 con iphone 6 16gb</t>
+  </si>
+  <si>
+    <t>Bán 2 con iphone 6s 16gb</t>
+  </si>
+  <si>
+    <t>Nhận 3 con iphone 6s 16gb</t>
+  </si>
+  <si>
+    <t>Bán 1 con iphone 6 64gb</t>
+  </si>
+  <si>
+    <t>Nhận 2 con 6s 16gb, 1 con 6 16gb</t>
   </si>
 </sst>
 </file>
@@ -391,7 +400,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +446,7 @@
         <v>43010</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>-70000</v>
@@ -451,7 +460,7 @@
         <v>43012</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>12600000</v>
@@ -465,7 +474,7 @@
         <v>43014</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>-12600000</v>
@@ -479,7 +488,7 @@
         <v>43020</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>-100000</v>
@@ -493,7 +502,7 @@
         <v>43021</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>6000000</v>
@@ -507,7 +516,7 @@
         <v>43021</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>5090000</v>
@@ -517,20 +526,56 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" s="1">
+        <v>43022</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" s="1">
+        <v>43024</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" s="1">
+        <v>43025</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>-50000</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43025</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>6400000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">

--- a/Giang - log.xlsx
+++ b/Giang - log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Stt</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Nhận 2 con 6s 16gb, 1 con 6 16gb</t>
+  </si>
+  <si>
+    <t>Nhận 2 6plus, 1 6s</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,10 +585,28 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" s="1">
+        <v>43033</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>4900000</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43035</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>-200000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
